--- a/DEFAULT_NAME.xlsx
+++ b/DEFAULT_NAME.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/422b9a5db4357f83/dai_hoc/HK24/Advanced_Algorithms/assignment/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0060C17400B037E85147773E5B37D8F00458C5A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3080E27-15EA-477B-9043-541DCE830A0C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
     <sheet name="details" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -3383,8 +3377,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3447,21 +3441,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3499,7 +3485,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3533,7 +3519,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3568,10 +3553,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3744,14 +3728,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3768,7 +3752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>966</v>
       </c>
@@ -3779,10 +3763,10 @@
         <v>7.16</v>
       </c>
       <c r="D2">
-        <v>5.9999999999999995E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="E2">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
@@ -3791,17 +3775,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="66.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3842,7 +3823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3880,10 +3861,10 @@
         <v>2</v>
       </c>
       <c r="M2">
-        <v>4.6949999999999997E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3906,10 +3887,10 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <v>2.241E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.64E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3941,10 +3922,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.061E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.43E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3982,10 +3963,10 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>2.4640000000000003E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.060000000000001E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4023,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="M6">
-        <v>2.0019999999999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4064,10 +4045,10 @@
         <v>3</v>
       </c>
       <c r="M7">
-        <v>1.7890000000000001E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4105,10 +4086,10 @@
         <v>2</v>
       </c>
       <c r="M8">
-        <v>1.2779999999999999E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.51E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4146,10 +4127,10 @@
         <v>3</v>
       </c>
       <c r="M9">
-        <v>1.238E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.210000000000001E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4187,10 +4168,10 @@
         <v>3</v>
       </c>
       <c r="M10">
-        <v>1.2459999999999999E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.84E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4228,10 +4209,10 @@
         <v>3</v>
       </c>
       <c r="M11">
-        <v>1.427E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.37E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4266,10 +4247,10 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <v>1.596E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.899999999999999E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4307,10 +4288,10 @@
         <v>3</v>
       </c>
       <c r="M13">
-        <v>1.718E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.890000000000001E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4348,10 +4329,10 @@
         <v>3</v>
       </c>
       <c r="M14">
-        <v>1.8230000000000001E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4389,10 +4370,10 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>1.7770000000000001E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4430,10 +4411,10 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>2.766E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.27E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4471,10 +4452,10 @@
         <v>3</v>
       </c>
       <c r="M17">
-        <v>3.7100000000000002E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.21E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4512,10 +4493,10 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>3.0309999999999999E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.38E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4553,10 +4534,10 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <v>2.433E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.44E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4594,10 +4575,10 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <v>2.8049999999999999E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.86E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4635,10 +4616,10 @@
         <v>3</v>
       </c>
       <c r="M21">
-        <v>3.5740000000000001E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4676,10 +4657,10 @@
         <v>3</v>
       </c>
       <c r="M22">
-        <v>3.232E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.97E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4717,10 +4698,10 @@
         <v>3</v>
       </c>
       <c r="M23">
-        <v>2.8299999999999999E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.83E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4758,10 +4739,10 @@
         <v>3</v>
       </c>
       <c r="M24">
-        <v>2.6860000000000002E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.15E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4799,10 +4780,10 @@
         <v>3</v>
       </c>
       <c r="M25">
-        <v>2.219E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.329999999999999E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4840,10 +4821,10 @@
         <v>3</v>
       </c>
       <c r="M26">
-        <v>2.5010000000000001E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.45E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4881,10 +4862,10 @@
         <v>2</v>
       </c>
       <c r="M27">
-        <v>3.6249999999999998E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4922,10 +4903,10 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>2.9740000000000002E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.059999999999999E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4963,10 +4944,10 @@
         <v>3</v>
       </c>
       <c r="M29">
-        <v>2.6190000000000002E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.76E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4995,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>3.4000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.92E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5036,10 +5017,10 @@
         <v>3</v>
       </c>
       <c r="M31">
-        <v>2.8820000000000001E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.43E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5077,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="M32">
-        <v>3.4939999999999998E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.000000000000001E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5118,10 +5099,10 @@
         <v>3</v>
       </c>
       <c r="M33">
-        <v>2.109E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.17E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5159,10 +5140,10 @@
         <v>3</v>
       </c>
       <c r="M34">
-        <v>2.2369999999999999E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.87E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5200,10 +5181,10 @@
         <v>3</v>
       </c>
       <c r="M35">
-        <v>1.562E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.270000000000001E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5244,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5282,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="M37">
-        <v>1.4980000000000001E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.390000000000001E-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5323,10 +5304,10 @@
         <v>2</v>
       </c>
       <c r="M38">
-        <v>1.761E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.27E-05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5364,10 +5345,10 @@
         <v>3</v>
       </c>
       <c r="M39">
-        <v>1.5899999999999999E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.339999999999999E-05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5405,10 +5386,10 @@
         <v>3</v>
       </c>
       <c r="M40">
-        <v>1.3789999999999999E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.949999999999999E-05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5446,10 +5427,10 @@
         <v>3</v>
       </c>
       <c r="M41">
-        <v>1.4300000000000001E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.87E-05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5487,10 +5468,10 @@
         <v>3</v>
       </c>
       <c r="M42">
-        <v>1.5469999999999999E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.71E-05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5528,10 +5509,10 @@
         <v>3</v>
       </c>
       <c r="M43">
-        <v>1.1400000000000001E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.07E-05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5569,10 +5550,10 @@
         <v>3</v>
       </c>
       <c r="M44">
-        <v>1.2779999999999999E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.160000000000001E-05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5598,10 +5579,10 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>1.56E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.58E-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5639,10 +5620,10 @@
         <v>3</v>
       </c>
       <c r="M46">
-        <v>1.37E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.19E-05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5680,10 +5661,10 @@
         <v>3</v>
       </c>
       <c r="M47">
-        <v>1.517E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.54E-05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5721,10 +5702,10 @@
         <v>3</v>
       </c>
       <c r="M48">
-        <v>1.3469999999999999E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.36E-05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5762,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="M49">
-        <v>1.4569999999999999E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.41E-05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5797,10 +5778,10 @@
         <v>3</v>
       </c>
       <c r="M50">
-        <v>1.9709999999999999E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.52E-05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5838,10 +5819,10 @@
         <v>2</v>
       </c>
       <c r="M51">
-        <v>6.1729999999999999E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.39E-05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5879,10 +5860,10 @@
         <v>3</v>
       </c>
       <c r="M52">
-        <v>1.775E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.889999999999999E-05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5920,10 +5901,10 @@
         <v>3</v>
       </c>
       <c r="M53">
-        <v>1.694E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.16E-05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5961,10 +5942,10 @@
         <v>3</v>
       </c>
       <c r="M54">
-        <v>1.6909999999999999E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.81E-05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6002,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="M55">
-        <v>1.3190000000000001E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.109999999999999E-05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6043,10 +6024,10 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>1.3469999999999999E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.34E-05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6084,10 +6065,10 @@
         <v>3</v>
       </c>
       <c r="M57">
-        <v>1.3469999999999999E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.95E-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6125,10 +6106,10 @@
         <v>3</v>
       </c>
       <c r="M58">
-        <v>1.6760000000000001E-4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001733</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6166,10 +6147,10 @@
         <v>3</v>
       </c>
       <c r="M59">
-        <v>1.3860000000000001E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.1E-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6207,10 +6188,10 @@
         <v>3</v>
       </c>
       <c r="M60">
-        <v>1.3679999999999999E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.59E-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6248,10 +6229,10 @@
         <v>3</v>
       </c>
       <c r="M61">
-        <v>1.3329999999999999E-4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.85E-05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6289,10 +6270,10 @@
         <v>3</v>
       </c>
       <c r="M62">
-        <v>1.383E-4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001082</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6330,10 +6311,10 @@
         <v>3</v>
       </c>
       <c r="M63">
-        <v>1.041E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.73E-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6371,10 +6352,10 @@
         <v>3</v>
       </c>
       <c r="M64">
-        <v>1.66E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6409,10 +6390,10 @@
         <v>2</v>
       </c>
       <c r="M65">
-        <v>1.4789999999999999E-4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6450,10 +6431,10 @@
         <v>3</v>
       </c>
       <c r="M66">
-        <v>2.4279999999999999E-4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6491,10 +6472,10 @@
         <v>3</v>
       </c>
       <c r="M67">
-        <v>5.3229999999999998E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6532,10 +6513,10 @@
         <v>3</v>
       </c>
       <c r="M68">
-        <v>5.0969999999999998E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.19E-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6573,10 +6554,10 @@
         <v>3</v>
       </c>
       <c r="M69">
-        <v>2.3890000000000001E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.13E-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6614,10 +6595,10 @@
         <v>3</v>
       </c>
       <c r="M70">
-        <v>1.7349999999999999E-4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.779999999999999E-05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6655,10 +6636,10 @@
         <v>2</v>
       </c>
       <c r="M71">
-        <v>1.8900000000000001E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.170000000000001E-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6696,10 +6677,10 @@
         <v>3</v>
       </c>
       <c r="M72">
-        <v>2.6390000000000002E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.389999999999999E-05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6737,10 +6718,10 @@
         <v>3</v>
       </c>
       <c r="M73">
-        <v>1.74E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.36E-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6778,10 +6759,10 @@
         <v>3</v>
       </c>
       <c r="M74">
-        <v>3.2979999999999999E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.13E-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6819,10 +6800,10 @@
         <v>3</v>
       </c>
       <c r="M75">
-        <v>1.6440000000000001E-4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.840000000000001E-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6857,10 +6838,10 @@
         <v>2</v>
       </c>
       <c r="M76">
-        <v>1.741E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6892,10 +6873,10 @@
         <v>1</v>
       </c>
       <c r="M77">
-        <v>1.3559999999999999E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.82E-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6933,10 +6914,10 @@
         <v>3</v>
       </c>
       <c r="M78">
-        <v>2.7260000000000001E-4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.3E-05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6974,10 +6955,10 @@
         <v>3</v>
       </c>
       <c r="M79">
-        <v>2.4869999999999997E-4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.03E-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7012,10 +6993,10 @@
         <v>1</v>
       </c>
       <c r="M80">
-        <v>4.0020000000000002E-4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001035</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7053,10 +7034,10 @@
         <v>3</v>
       </c>
       <c r="M81">
-        <v>2.811E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.279999999999999E-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7094,10 +7075,10 @@
         <v>3</v>
       </c>
       <c r="M82">
-        <v>2.4020000000000001E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.18E-05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7135,10 +7116,10 @@
         <v>3</v>
       </c>
       <c r="M83">
-        <v>2.13E-4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.81E-05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7176,10 +7157,10 @@
         <v>3</v>
       </c>
       <c r="M84">
-        <v>1.562E-4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.940000000000001E-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7217,10 +7198,10 @@
         <v>3</v>
       </c>
       <c r="M85">
-        <v>1.4760000000000001E-4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.2E-05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7258,10 +7239,10 @@
         <v>3</v>
       </c>
       <c r="M86">
-        <v>1.449E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.75E-05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7287,10 +7268,10 @@
         <v>1</v>
       </c>
       <c r="M87">
-        <v>1.515E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.679999999999999E-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7328,10 +7309,10 @@
         <v>3</v>
       </c>
       <c r="M88">
-        <v>1.928E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7369,10 +7350,10 @@
         <v>3</v>
       </c>
       <c r="M89">
-        <v>1.103E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.58E-05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7410,10 +7391,10 @@
         <v>3</v>
       </c>
       <c r="M90">
-        <v>1.6660000000000001E-4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.66E-05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7451,10 +7432,10 @@
         <v>3</v>
       </c>
       <c r="M91">
-        <v>1.4129999999999999E-4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.720000000000001E-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7495,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7533,10 +7514,10 @@
         <v>3</v>
       </c>
       <c r="M93">
-        <v>1.172E-4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.940000000000001E-05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7577,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7615,10 +7596,10 @@
         <v>3</v>
       </c>
       <c r="M95">
-        <v>1.3109999999999999E-4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.04E-05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7659,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7697,10 +7678,10 @@
         <v>3</v>
       </c>
       <c r="M97">
-        <v>1.427E-4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.670000000000001E-05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7738,10 +7719,10 @@
         <v>3</v>
       </c>
       <c r="M98">
-        <v>1.2960000000000001E-4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.76E-05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7779,10 +7760,10 @@
         <v>3</v>
       </c>
       <c r="M99">
-        <v>1.249E-4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.02E-05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7820,10 +7801,10 @@
         <v>3</v>
       </c>
       <c r="M100">
-        <v>1.0840000000000001E-4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.68E-05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7861,10 +7842,10 @@
         <v>3</v>
       </c>
       <c r="M101">
-        <v>1.6110000000000001E-4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001039</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7902,10 +7883,10 @@
         <v>3</v>
       </c>
       <c r="M102">
-        <v>1.3070000000000001E-4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.77E-05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7943,10 +7924,10 @@
         <v>3</v>
       </c>
       <c r="M103">
-        <v>1.5100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.670000000000001E-05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7984,10 +7965,10 @@
         <v>3</v>
       </c>
       <c r="M104">
-        <v>1.4530000000000001E-4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.98E-05</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>103</v>
       </c>
@@ -8028,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>104</v>
       </c>
@@ -8066,10 +8047,10 @@
         <v>3</v>
       </c>
       <c r="M106">
-        <v>1.2459999999999999E-4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.38E-05</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>105</v>
       </c>
@@ -8107,10 +8088,10 @@
         <v>3</v>
       </c>
       <c r="M107">
-        <v>1.214E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.08E-05</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>106</v>
       </c>
@@ -8148,10 +8129,10 @@
         <v>3</v>
       </c>
       <c r="M108">
-        <v>1.6579999999999999E-4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>107</v>
       </c>
@@ -8189,10 +8170,10 @@
         <v>3</v>
       </c>
       <c r="M109">
-        <v>1.183E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.25E-05</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>108</v>
       </c>
@@ -8212,10 +8193,10 @@
         <v>3</v>
       </c>
       <c r="M110">
-        <v>1.076E-4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.69E-05</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>109</v>
       </c>
@@ -8253,10 +8234,10 @@
         <v>3</v>
       </c>
       <c r="M111">
-        <v>1.316E-4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.16E-05</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>110</v>
       </c>
@@ -8294,10 +8275,10 @@
         <v>2</v>
       </c>
       <c r="M112">
-        <v>1.6780000000000001E-4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>111</v>
       </c>
@@ -8335,10 +8316,10 @@
         <v>3</v>
       </c>
       <c r="M113">
-        <v>2.097E-4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.279999999999999E-05</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>112</v>
       </c>
@@ -8367,10 +8348,10 @@
         <v>2</v>
       </c>
       <c r="M114">
-        <v>2.3120000000000001E-4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.77E-05</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8396,10 +8377,10 @@
         <v>3</v>
       </c>
       <c r="M115">
-        <v>2.1460000000000001E-4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.58E-05</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>114</v>
       </c>
@@ -8437,10 +8418,10 @@
         <v>3</v>
       </c>
       <c r="M116">
-        <v>1.942E-4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.99E-05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117">
         <v>115</v>
       </c>
@@ -8478,10 +8459,10 @@
         <v>3</v>
       </c>
       <c r="M117">
-        <v>1.494E-4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.27E-05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118">
         <v>116</v>
       </c>
@@ -8519,10 +8500,10 @@
         <v>3</v>
       </c>
       <c r="M118">
-        <v>1.5540000000000001E-4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.15E-05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119">
         <v>117</v>
       </c>
@@ -8560,10 +8541,10 @@
         <v>3</v>
       </c>
       <c r="M119">
-        <v>1.416E-4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.74E-05</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120">
         <v>118</v>
       </c>
@@ -8601,10 +8582,10 @@
         <v>3</v>
       </c>
       <c r="M120">
-        <v>1.2760000000000001E-4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.779999999999999E-05</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121">
         <v>119</v>
       </c>
@@ -8639,10 +8620,10 @@
         <v>2</v>
       </c>
       <c r="M121">
-        <v>1.3300000000000001E-4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.73E-05</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>120</v>
       </c>
@@ -8680,10 +8661,10 @@
         <v>3</v>
       </c>
       <c r="M122">
-        <v>1.228E-4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.940000000000001E-05</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8721,10 +8702,10 @@
         <v>3</v>
       </c>
       <c r="M123">
-        <v>1.2640000000000001E-4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.38E-05</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8750,10 +8731,10 @@
         <v>1</v>
       </c>
       <c r="M124">
-        <v>1.4249999999999999E-4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.82E-05</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8791,10 +8772,10 @@
         <v>2</v>
       </c>
       <c r="M125">
-        <v>1.45E-4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.229999999999999E-05</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8832,10 +8813,10 @@
         <v>3</v>
       </c>
       <c r="M126">
-        <v>1.4579999999999999E-4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.399999999999999E-05</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8873,10 +8854,10 @@
         <v>3</v>
       </c>
       <c r="M127">
-        <v>1.3459999999999999E-4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.09E-05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8914,10 +8895,10 @@
         <v>3</v>
       </c>
       <c r="M128">
-        <v>1.249E-4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.49E-05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8955,10 +8936,10 @@
         <v>3</v>
       </c>
       <c r="M129">
-        <v>1.4100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.26E-05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8996,10 +8977,10 @@
         <v>3</v>
       </c>
       <c r="M130">
-        <v>1.3420000000000001E-4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.839999999999999E-05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131">
         <v>129</v>
       </c>
@@ -9037,10 +9018,10 @@
         <v>3</v>
       </c>
       <c r="M131">
-        <v>1.039E-4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.55E-05</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132">
         <v>130</v>
       </c>
@@ -9078,10 +9059,10 @@
         <v>3</v>
       </c>
       <c r="M132">
-        <v>1.5410000000000001E-4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.2E-05</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133">
         <v>131</v>
       </c>
@@ -9119,10 +9100,10 @@
         <v>3</v>
       </c>
       <c r="M133">
-        <v>1.031E-4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.11E-05</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>132</v>
       </c>
@@ -9160,10 +9141,10 @@
         <v>3</v>
       </c>
       <c r="M134">
-        <v>1.829E-4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001227</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135">
         <v>133</v>
       </c>
@@ -9198,10 +9179,10 @@
         <v>2</v>
       </c>
       <c r="M135">
-        <v>1.372E-4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.22E-05</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136">
         <v>134</v>
       </c>
@@ -9239,10 +9220,10 @@
         <v>3</v>
       </c>
       <c r="M136">
-        <v>1.3339999999999999E-4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.97E-05</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137">
         <v>135</v>
       </c>
@@ -9280,10 +9261,10 @@
         <v>3</v>
       </c>
       <c r="M137">
-        <v>1.651E-4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.59E-05</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138">
         <v>136</v>
       </c>
@@ -9321,10 +9302,10 @@
         <v>3</v>
       </c>
       <c r="M138">
-        <v>1.5970000000000001E-4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.82E-05</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139">
         <v>137</v>
       </c>
@@ -9362,10 +9343,10 @@
         <v>3</v>
       </c>
       <c r="M139">
-        <v>3.7439999999999999E-4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.41E-05</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140">
         <v>138</v>
       </c>
@@ -9400,10 +9381,10 @@
         <v>1</v>
       </c>
       <c r="M140">
-        <v>3.257E-4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141">
         <v>139</v>
       </c>
@@ -9432,10 +9413,10 @@
         <v>2</v>
       </c>
       <c r="M141">
-        <v>1.189E-4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.09E-05</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142">
         <v>140</v>
       </c>
@@ -9473,10 +9454,10 @@
         <v>3</v>
       </c>
       <c r="M142">
-        <v>1.155E-4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.56E-05</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143">
         <v>141</v>
       </c>
@@ -9514,10 +9495,10 @@
         <v>3</v>
       </c>
       <c r="M143">
-        <v>1.383E-4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.85E-05</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144">
         <v>142</v>
       </c>
@@ -9555,10 +9536,10 @@
         <v>3</v>
       </c>
       <c r="M144">
-        <v>1.4459999999999999E-4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.66E-05</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145">
         <v>143</v>
       </c>
@@ -9596,10 +9577,10 @@
         <v>3</v>
       </c>
       <c r="M145">
-        <v>1.6339999999999999E-4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001072</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146">
         <v>144</v>
       </c>
@@ -9637,10 +9618,10 @@
         <v>3</v>
       </c>
       <c r="M146">
-        <v>1.3310000000000001E-4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.8E-05</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147">
         <v>145</v>
       </c>
@@ -9678,10 +9659,10 @@
         <v>3</v>
       </c>
       <c r="M147">
-        <v>1.188E-4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.889999999999999E-05</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148">
         <v>146</v>
       </c>
@@ -9719,10 +9700,10 @@
         <v>3</v>
       </c>
       <c r="M148">
-        <v>1.281E-4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.610000000000001E-05</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149">
         <v>147</v>
       </c>
@@ -9760,10 +9741,10 @@
         <v>3</v>
       </c>
       <c r="M149">
-        <v>1.158E-4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001327</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9801,10 +9782,10 @@
         <v>3</v>
       </c>
       <c r="M150">
-        <v>1.4899999999999999E-4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0002292</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9842,10 +9823,10 @@
         <v>3</v>
       </c>
       <c r="M151">
-        <v>1.761E-4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001466</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9874,10 +9855,10 @@
         <v>2</v>
       </c>
       <c r="M152">
-        <v>7.4900000000000005E-5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.5E-05</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9915,10 +9896,10 @@
         <v>3</v>
       </c>
       <c r="M153">
-        <v>1.283E-4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001288</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9950,10 +9931,10 @@
         <v>3</v>
       </c>
       <c r="M154">
-        <v>9.0600000000000007E-5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.37E-05</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155">
         <v>153</v>
       </c>
@@ -9985,10 +9966,10 @@
         <v>3</v>
       </c>
       <c r="M155">
-        <v>8.4800000000000001E-5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.51E-05</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156">
         <v>154</v>
       </c>
@@ -10020,10 +10001,10 @@
         <v>3</v>
       </c>
       <c r="M156">
-        <v>7.9800000000000002E-5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.27E-05</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157">
         <v>155</v>
       </c>
@@ -10058,10 +10039,10 @@
         <v>1</v>
       </c>
       <c r="M157">
-        <v>1.7789999999999999E-4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.66E-05</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158">
         <v>156</v>
       </c>
@@ -10090,10 +10071,10 @@
         <v>2</v>
       </c>
       <c r="M158">
-        <v>1.362E-4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.87E-05</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159">
         <v>157</v>
       </c>
@@ -10128,10 +10109,10 @@
         <v>2</v>
       </c>
       <c r="M159">
-        <v>1.088E-4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001049</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160">
         <v>158</v>
       </c>
@@ -10166,10 +10147,10 @@
         <v>2</v>
       </c>
       <c r="M160">
-        <v>1.4129999999999999E-4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001649</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161">
         <v>159</v>
       </c>
@@ -10204,10 +10185,10 @@
         <v>2</v>
       </c>
       <c r="M161">
-        <v>1.404E-4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001474</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162">
         <v>160</v>
       </c>
@@ -10242,10 +10223,10 @@
         <v>2</v>
       </c>
       <c r="M162">
-        <v>1.159E-4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0004181</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163">
         <v>161</v>
       </c>
@@ -10277,10 +10258,10 @@
         <v>1</v>
       </c>
       <c r="M163">
-        <v>1.0679999999999999E-4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001212</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164">
         <v>162</v>
       </c>
@@ -10318,10 +10299,10 @@
         <v>3</v>
       </c>
       <c r="M164">
-        <v>1.3359999999999999E-4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165">
         <v>163</v>
       </c>
@@ -10353,10 +10334,10 @@
         <v>1</v>
       </c>
       <c r="M165">
-        <v>1.3229999999999999E-4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.04E-05</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166">
         <v>164</v>
       </c>
@@ -10388,10 +10369,10 @@
         <v>1</v>
       </c>
       <c r="M166">
-        <v>1.6530000000000001E-4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.000122</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167">
         <v>165</v>
       </c>
@@ -10420,10 +10401,10 @@
         <v>2</v>
       </c>
       <c r="M167">
-        <v>1.574E-4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.889999999999999E-05</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168">
         <v>166</v>
       </c>
@@ -10455,10 +10436,10 @@
         <v>3</v>
       </c>
       <c r="M168">
-        <v>1.1069999999999999E-4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.499999999999999E-05</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169">
         <v>167</v>
       </c>
@@ -10487,10 +10468,10 @@
         <v>2</v>
       </c>
       <c r="M169">
-        <v>8.6000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.64E-05</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170">
         <v>168</v>
       </c>
@@ -10519,10 +10500,10 @@
         <v>2</v>
       </c>
       <c r="M170">
-        <v>8.6299999999999997E-5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.71E-05</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171">
         <v>169</v>
       </c>
@@ -10554,10 +10535,10 @@
         <v>1</v>
       </c>
       <c r="M171">
-        <v>9.0299999999999999E-5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.97E-05</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172">
         <v>170</v>
       </c>
@@ -10586,10 +10567,10 @@
         <v>2</v>
       </c>
       <c r="M172">
-        <v>8.9900000000000003E-5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.779999999999999E-05</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173">
         <v>171</v>
       </c>
@@ -10621,10 +10602,10 @@
         <v>3</v>
       </c>
       <c r="M173">
-        <v>9.2600000000000001E-5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.380000000000001E-05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174">
         <v>172</v>
       </c>
@@ -10650,10 +10631,10 @@
         <v>1</v>
       </c>
       <c r="M174">
-        <v>1.317E-4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.69E-05</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175">
         <v>173</v>
       </c>
@@ -10691,10 +10672,10 @@
         <v>2</v>
       </c>
       <c r="M175">
-        <v>1.2789999999999999E-4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001021</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176">
         <v>174</v>
       </c>
@@ -10720,10 +10701,10 @@
         <v>1</v>
       </c>
       <c r="M176">
-        <v>9.48E-5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.38E-05</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177">
         <v>175</v>
       </c>
@@ -10752,10 +10733,10 @@
         <v>2</v>
       </c>
       <c r="M177">
-        <v>8.5000000000000006E-5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.32E-05</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178">
         <v>176</v>
       </c>
@@ -10790,10 +10771,10 @@
         <v>2</v>
       </c>
       <c r="M178">
-        <v>1.2789999999999999E-4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.060000000000001E-05</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179">
         <v>177</v>
       </c>
@@ -10825,10 +10806,10 @@
         <v>3</v>
       </c>
       <c r="M179">
-        <v>9.8599999999999998E-5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.8E-05</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180">
         <v>178</v>
       </c>
@@ -10866,10 +10847,10 @@
         <v>3</v>
       </c>
       <c r="M180">
-        <v>1.3880000000000001E-4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181">
         <v>179</v>
       </c>
@@ -10907,10 +10888,10 @@
         <v>2</v>
       </c>
       <c r="M181">
-        <v>1.17E-4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.25E-05</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182">
         <v>180</v>
       </c>
@@ -10942,10 +10923,10 @@
         <v>1</v>
       </c>
       <c r="M182">
-        <v>1.2290000000000001E-4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.32E-05</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183">
         <v>181</v>
       </c>
@@ -10983,10 +10964,10 @@
         <v>3</v>
       </c>
       <c r="M183">
-        <v>1.3080000000000001E-4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.74E-05</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184">
         <v>182</v>
       </c>
@@ -11012,10 +10993,10 @@
         <v>1</v>
       </c>
       <c r="M184">
-        <v>7.5699999999999997E-5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.38E-05</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185">
         <v>183</v>
       </c>
@@ -11050,10 +11031,10 @@
         <v>2</v>
       </c>
       <c r="M185">
-        <v>1.0560000000000001E-4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.84E-05</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186">
         <v>184</v>
       </c>
@@ -11082,10 +11063,10 @@
         <v>2</v>
       </c>
       <c r="M186">
-        <v>9.1399999999999999E-5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.88E-05</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187">
         <v>185</v>
       </c>
@@ -11120,10 +11101,10 @@
         <v>2</v>
       </c>
       <c r="M187">
-        <v>1.1E-4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.55E-05</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188">
         <v>186</v>
       </c>
@@ -11158,10 +11139,10 @@
         <v>2</v>
       </c>
       <c r="M188">
-        <v>9.3399999999999993E-5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.56E-05</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189">
         <v>187</v>
       </c>
@@ -11193,10 +11174,10 @@
         <v>1</v>
       </c>
       <c r="M189">
-        <v>8.2399999999999997E-5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.08E-05</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190">
         <v>188</v>
       </c>
@@ -11228,10 +11209,10 @@
         <v>3</v>
       </c>
       <c r="M190">
-        <v>8.9599999999999996E-5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.36E-05</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191">
         <v>189</v>
       </c>
@@ -11266,10 +11247,10 @@
         <v>2</v>
       </c>
       <c r="M191">
-        <v>9.9599999999999995E-5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.13E-05</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192">
         <v>190</v>
       </c>
@@ -11298,10 +11279,10 @@
         <v>2</v>
       </c>
       <c r="M192">
-        <v>7.7899999999999996E-5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.76E-05</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193">
         <v>191</v>
       </c>
@@ -11333,10 +11314,10 @@
         <v>1</v>
       </c>
       <c r="M193">
-        <v>8.25E-5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.45E-05</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194">
         <v>192</v>
       </c>
@@ -11374,10 +11355,10 @@
         <v>1</v>
       </c>
       <c r="M194">
-        <v>1.054E-4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.82E-05</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195">
         <v>193</v>
       </c>
@@ -11403,10 +11384,10 @@
         <v>1</v>
       </c>
       <c r="M195">
-        <v>8.1000000000000004E-5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.38E-05</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196">
         <v>194</v>
       </c>
@@ -11441,10 +11422,10 @@
         <v>2</v>
       </c>
       <c r="M196">
-        <v>1.161E-4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.95E-05</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197">
         <v>195</v>
       </c>
@@ -11476,10 +11457,10 @@
         <v>3</v>
       </c>
       <c r="M197">
-        <v>9.7299999999999993E-5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.05E-05</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198">
         <v>196</v>
       </c>
@@ -11505,10 +11486,10 @@
         <v>1</v>
       </c>
       <c r="M198">
-        <v>6.8499999999999998E-5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.9E-05</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199">
         <v>197</v>
       </c>
@@ -11543,10 +11524,10 @@
         <v>2</v>
       </c>
       <c r="M199">
-        <v>1.11E-4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.3E-05</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200">
         <v>198</v>
       </c>
@@ -11578,10 +11559,10 @@
         <v>1</v>
       </c>
       <c r="M200">
-        <v>9.3200000000000002E-5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.33E-05</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201">
         <v>199</v>
       </c>
@@ -11616,10 +11597,10 @@
         <v>2</v>
       </c>
       <c r="M201">
-        <v>1.0959999999999999E-4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.37E-05</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202">
         <v>200</v>
       </c>
@@ -11648,10 +11629,10 @@
         <v>2</v>
       </c>
       <c r="M202">
-        <v>7.1299999999999998E-5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.19E-05</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203">
         <v>201</v>
       </c>
@@ -11680,10 +11661,10 @@
         <v>2</v>
       </c>
       <c r="M203">
-        <v>7.64E-5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.62E-05</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204">
         <v>202</v>
       </c>
@@ -11715,10 +11696,10 @@
         <v>1</v>
       </c>
       <c r="M204">
-        <v>9.6799999999999995E-5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.65E-05</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205">
         <v>203</v>
       </c>
@@ -11756,10 +11737,10 @@
         <v>3</v>
       </c>
       <c r="M205">
-        <v>1.1739999999999999E-4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.92E-05</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206">
         <v>204</v>
       </c>
@@ -11791,10 +11772,10 @@
         <v>1</v>
       </c>
       <c r="M206">
-        <v>7.8200000000000003E-5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.85E-05</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207">
         <v>205</v>
       </c>
@@ -11826,10 +11807,10 @@
         <v>3</v>
       </c>
       <c r="M207">
-        <v>8.2399999999999997E-5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.33E-05</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208">
         <v>206</v>
       </c>
@@ -11861,10 +11842,10 @@
         <v>1</v>
       </c>
       <c r="M208">
-        <v>1.081E-4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.65E-05</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209">
         <v>207</v>
       </c>
@@ -11893,10 +11874,10 @@
         <v>2</v>
       </c>
       <c r="M209">
-        <v>8.2100000000000003E-5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.27E-05</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210">
         <v>208</v>
       </c>
@@ -11931,10 +11912,10 @@
         <v>1</v>
       </c>
       <c r="M210">
-        <v>8.6199999999999995E-5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.09E-05</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211">
         <v>209</v>
       </c>
@@ -11966,10 +11947,10 @@
         <v>3</v>
       </c>
       <c r="M211">
-        <v>9.0799999999999998E-5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.01E-05</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212">
         <v>210</v>
       </c>
@@ -11998,10 +11979,10 @@
         <v>2</v>
       </c>
       <c r="M212">
-        <v>7.4900000000000005E-5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.72E-05</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213">
         <v>211</v>
       </c>
@@ -12030,10 +12011,10 @@
         <v>2</v>
       </c>
       <c r="M213">
-        <v>8.92E-5</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.84E-05</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214">
         <v>212</v>
       </c>
@@ -12062,10 +12043,10 @@
         <v>2</v>
       </c>
       <c r="M214">
-        <v>8.7999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.4E-05</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215">
         <v>213</v>
       </c>
@@ -12103,10 +12084,10 @@
         <v>2</v>
       </c>
       <c r="M215">
-        <v>1.271E-4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.770000000000001E-05</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216">
         <v>214</v>
       </c>
@@ -12135,10 +12116,10 @@
         <v>2</v>
       </c>
       <c r="M216">
-        <v>8.2899999999999996E-5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.24E-05</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217">
         <v>215</v>
       </c>
@@ -12170,10 +12151,10 @@
         <v>2</v>
       </c>
       <c r="M217">
-        <v>8.8999999999999995E-5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.78E-05</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218">
         <v>216</v>
       </c>
@@ -12202,10 +12183,10 @@
         <v>2</v>
       </c>
       <c r="M218">
-        <v>8.6399999999999999E-5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.49E-05</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219">
         <v>217</v>
       </c>
@@ -12237,10 +12218,10 @@
         <v>3</v>
       </c>
       <c r="M219">
-        <v>7.8800000000000004E-5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.78E-05</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220">
         <v>218</v>
       </c>
@@ -12266,10 +12247,10 @@
         <v>1</v>
       </c>
       <c r="M220">
-        <v>6.4700000000000001E-5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.72E-05</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221">
         <v>219</v>
       </c>
@@ -12298,10 +12279,10 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>8.7499999999999999E-5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.78E-05</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222">
         <v>220</v>
       </c>
@@ -12339,10 +12320,10 @@
         <v>2</v>
       </c>
       <c r="M222">
-        <v>1.17E-4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.600000000000001E-05</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223">
         <v>221</v>
       </c>
@@ -12380,10 +12361,10 @@
         <v>3</v>
       </c>
       <c r="M223">
-        <v>1.2510000000000001E-4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.85E-05</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224">
         <v>222</v>
       </c>
@@ -12409,10 +12390,10 @@
         <v>1</v>
       </c>
       <c r="M224">
-        <v>6.4800000000000003E-5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.51E-05</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225">
         <v>223</v>
       </c>
@@ -12441,10 +12422,10 @@
         <v>2</v>
       </c>
       <c r="M225">
-        <v>7.2000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.09E-05</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226">
         <v>224</v>
       </c>
@@ -12473,10 +12454,10 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>8.2399999999999997E-5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.29E-05</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227">
         <v>225</v>
       </c>
@@ -12511,10 +12492,10 @@
         <v>1</v>
       </c>
       <c r="M227">
-        <v>8.8900000000000006E-5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.11E-05</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
       <c r="A228">
         <v>226</v>
       </c>
@@ -12552,10 +12533,10 @@
         <v>2</v>
       </c>
       <c r="M228">
-        <v>1.144E-4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.660000000000001E-05</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
       <c r="A229">
         <v>227</v>
       </c>
@@ -12593,10 +12574,10 @@
         <v>3</v>
       </c>
       <c r="M229">
-        <v>1.183E-4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.99E-05</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230">
         <v>228</v>
       </c>
@@ -12628,10 +12609,10 @@
         <v>1</v>
       </c>
       <c r="M230">
-        <v>8.8800000000000004E-5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.39E-05</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13">
       <c r="A231">
         <v>229</v>
       </c>
@@ -12666,10 +12647,10 @@
         <v>2</v>
       </c>
       <c r="M231">
-        <v>1.094E-4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.61E-05</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13">
       <c r="A232">
         <v>230</v>
       </c>
@@ -12701,10 +12682,10 @@
         <v>1</v>
       </c>
       <c r="M232">
-        <v>7.8999999999999996E-5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.59E-05</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
       <c r="A233">
         <v>231</v>
       </c>
@@ -12739,10 +12720,10 @@
         <v>2</v>
       </c>
       <c r="M233">
-        <v>9.6000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.04E-05</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
       <c r="A234">
         <v>232</v>
       </c>
@@ -12774,10 +12755,10 @@
         <v>3</v>
       </c>
       <c r="M234">
-        <v>9.6000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.71E-05</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13">
       <c r="A235">
         <v>233</v>
       </c>
@@ -12809,10 +12790,10 @@
         <v>3</v>
       </c>
       <c r="M235">
-        <v>9.5000000000000005E-5</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.34E-05</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
       <c r="A236">
         <v>234</v>
       </c>
@@ -12844,10 +12825,10 @@
         <v>3</v>
       </c>
       <c r="M236">
-        <v>9.3300000000000005E-5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.09E-05</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
       <c r="A237">
         <v>235</v>
       </c>
@@ -12876,10 +12857,10 @@
         <v>2</v>
       </c>
       <c r="M237">
-        <v>8.0000000000000007E-5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.61E-05</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
       <c r="A238">
         <v>236</v>
       </c>
@@ -12911,10 +12892,10 @@
         <v>1</v>
       </c>
       <c r="M238">
-        <v>1.11E-4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.389999999999999E-05</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
       <c r="A239">
         <v>237</v>
       </c>
@@ -12943,10 +12924,10 @@
         <v>2</v>
       </c>
       <c r="M239">
-        <v>8.3900000000000006E-5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.94E-05</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240">
         <v>238</v>
       </c>
@@ -12975,10 +12956,10 @@
         <v>2</v>
       </c>
       <c r="M240">
-        <v>7.5500000000000006E-5</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.49E-05</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13">
       <c r="A241">
         <v>239</v>
       </c>
@@ -13010,10 +12991,10 @@
         <v>3</v>
       </c>
       <c r="M241">
-        <v>9.9099999999999996E-5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.32E-05</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13">
       <c r="A242">
         <v>240</v>
       </c>
@@ -13051,10 +13032,10 @@
         <v>3</v>
       </c>
       <c r="M242">
-        <v>1.1239999999999999E-4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.42E-05</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
       <c r="A243">
         <v>241</v>
       </c>
@@ -13086,10 +13067,10 @@
         <v>1</v>
       </c>
       <c r="M243">
-        <v>7.2799999999999994E-5</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.91E-05</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
       <c r="A244">
         <v>242</v>
       </c>
@@ -13121,10 +13102,10 @@
         <v>3</v>
       </c>
       <c r="M244">
-        <v>7.1299999999999998E-5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.06E-05</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13">
       <c r="A245">
         <v>243</v>
       </c>
@@ -13156,10 +13137,10 @@
         <v>1</v>
       </c>
       <c r="M245">
-        <v>1.05E-4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.380000000000001E-05</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13">
       <c r="A246">
         <v>244</v>
       </c>
@@ -13191,10 +13172,10 @@
         <v>3</v>
       </c>
       <c r="M246">
-        <v>8.7299999999999994E-5</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.51E-05</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
       <c r="A247">
         <v>245</v>
       </c>
@@ -13220,10 +13201,10 @@
         <v>1</v>
       </c>
       <c r="M247">
-        <v>6.7700000000000006E-5</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3E-05</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13">
       <c r="A248">
         <v>246</v>
       </c>
@@ -13255,10 +13236,10 @@
         <v>1</v>
       </c>
       <c r="M248">
-        <v>1.01E-4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.91E-05</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13">
       <c r="A249">
         <v>247</v>
       </c>
@@ -13284,10 +13265,10 @@
         <v>1</v>
       </c>
       <c r="M249">
-        <v>6.0800000000000001E-5</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.46E-05</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13">
       <c r="A250">
         <v>248</v>
       </c>
@@ -13322,10 +13303,10 @@
         <v>2</v>
       </c>
       <c r="M250">
-        <v>1.0289999999999999E-4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.03E-05</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13">
       <c r="A251">
         <v>249</v>
       </c>
@@ -13357,10 +13338,10 @@
         <v>1</v>
       </c>
       <c r="M251">
-        <v>9.0000000000000006E-5</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.83E-05</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13">
       <c r="A252">
         <v>250</v>
       </c>
@@ -13389,10 +13370,10 @@
         <v>2</v>
       </c>
       <c r="M252">
-        <v>8.1100000000000006E-5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.11E-05</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13">
       <c r="A253">
         <v>251</v>
       </c>
@@ -13421,10 +13402,10 @@
         <v>2</v>
       </c>
       <c r="M253">
-        <v>5.5399999999999998E-5</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.81E-05</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13">
       <c r="A254">
         <v>252</v>
       </c>
@@ -13462,10 +13443,10 @@
         <v>3</v>
       </c>
       <c r="M254">
-        <v>1.15E-4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.74E-05</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13">
       <c r="A255">
         <v>253</v>
       </c>
@@ -13497,10 +13478,10 @@
         <v>1</v>
       </c>
       <c r="M255">
-        <v>7.1400000000000001E-5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.68E-05</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13">
       <c r="A256">
         <v>254</v>
       </c>
@@ -13529,10 +13510,10 @@
         <v>2</v>
       </c>
       <c r="M256">
-        <v>7.8399999999999995E-5</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.17E-05</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13">
       <c r="A257">
         <v>255</v>
       </c>
@@ -13570,10 +13551,10 @@
         <v>3</v>
       </c>
       <c r="M257">
-        <v>1.069E-4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.69E-05</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13">
       <c r="A258">
         <v>256</v>
       </c>
@@ -13608,10 +13589,10 @@
         <v>2</v>
       </c>
       <c r="M258">
-        <v>1.06E-4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001079</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13">
       <c r="A259">
         <v>257</v>
       </c>
@@ -13640,10 +13621,10 @@
         <v>2</v>
       </c>
       <c r="M259">
-        <v>7.4300000000000004E-5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.24E-05</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13">
       <c r="A260">
         <v>258</v>
       </c>
@@ -13669,10 +13650,10 @@
         <v>1</v>
       </c>
       <c r="M260">
-        <v>7.2799999999999994E-5</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.98E-05</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13">
       <c r="A261">
         <v>259</v>
       </c>
@@ -13701,10 +13682,10 @@
         <v>2</v>
       </c>
       <c r="M261">
-        <v>7.7600000000000002E-5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.39E-05</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13">
       <c r="A262">
         <v>260</v>
       </c>
@@ -13733,10 +13714,10 @@
         <v>2</v>
       </c>
       <c r="M262">
-        <v>7.7399999999999998E-5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.7E-05</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13">
       <c r="A263">
         <v>261</v>
       </c>
@@ -13762,10 +13743,10 @@
         <v>1</v>
       </c>
       <c r="M263">
-        <v>6.69E-5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.84E-05</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13">
       <c r="A264">
         <v>262</v>
       </c>
@@ -13797,10 +13778,10 @@
         <v>2</v>
       </c>
       <c r="M264">
-        <v>7.7399999999999998E-5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.89E-05</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13">
       <c r="A265">
         <v>263</v>
       </c>
@@ -13829,10 +13810,10 @@
         <v>2</v>
       </c>
       <c r="M265">
-        <v>8.5199999999999997E-5</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.9E-05</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13">
       <c r="A266">
         <v>264</v>
       </c>
@@ -13861,10 +13842,10 @@
         <v>2</v>
       </c>
       <c r="M266">
-        <v>7.3200000000000004E-5</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.53E-05</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13">
       <c r="A267">
         <v>265</v>
       </c>
@@ -13890,10 +13871,10 @@
         <v>1</v>
       </c>
       <c r="M267">
-        <v>7.64E-5</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.64E-05</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13">
       <c r="A268">
         <v>266</v>
       </c>
@@ -13928,10 +13909,10 @@
         <v>2</v>
       </c>
       <c r="M268">
-        <v>1.077E-4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.34E-05</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13">
       <c r="A269">
         <v>267</v>
       </c>
@@ -13969,10 +13950,10 @@
         <v>1</v>
       </c>
       <c r="M269">
-        <v>1.125E-4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.490000000000001E-05</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13">
       <c r="A270">
         <v>268</v>
       </c>
@@ -14001,10 +13982,10 @@
         <v>2</v>
       </c>
       <c r="M270">
-        <v>7.3899999999999994E-5</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.31E-05</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13">
       <c r="A271">
         <v>269</v>
       </c>
@@ -14039,10 +14020,10 @@
         <v>2</v>
       </c>
       <c r="M271">
-        <v>1.126E-4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.19E-05</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13">
       <c r="A272">
         <v>270</v>
       </c>
@@ -14077,10 +14058,10 @@
         <v>2</v>
       </c>
       <c r="M272">
-        <v>1.0450000000000001E-4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.31E-05</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13">
       <c r="A273">
         <v>271</v>
       </c>
@@ -14115,10 +14096,10 @@
         <v>2</v>
       </c>
       <c r="M273">
-        <v>1.187E-4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.29E-05</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13">
       <c r="A274">
         <v>272</v>
       </c>
@@ -14156,10 +14137,10 @@
         <v>3</v>
       </c>
       <c r="M274">
-        <v>1.193E-4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.29E-05</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13">
       <c r="A275">
         <v>273</v>
       </c>
@@ -14194,10 +14175,10 @@
         <v>2</v>
       </c>
       <c r="M275">
-        <v>1.147E-4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.79E-05</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13">
       <c r="A276">
         <v>274</v>
       </c>
@@ -14223,10 +14204,10 @@
         <v>1</v>
       </c>
       <c r="M276">
-        <v>6.7899999999999997E-5</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.47E-05</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13">
       <c r="A277">
         <v>275</v>
       </c>
@@ -14255,10 +14236,10 @@
         <v>2</v>
       </c>
       <c r="M277">
-        <v>7.3499999999999998E-5</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.58E-05</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13">
       <c r="A278">
         <v>276</v>
       </c>
@@ -14287,10 +14268,10 @@
         <v>1</v>
       </c>
       <c r="M278">
-        <v>8.7800000000000006E-5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.58E-05</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13">
       <c r="A279">
         <v>277</v>
       </c>
@@ -14319,10 +14300,10 @@
         <v>2</v>
       </c>
       <c r="M279">
-        <v>7.3399999999999995E-5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.31E-05</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13">
       <c r="A280">
         <v>278</v>
       </c>
@@ -14348,10 +14329,10 @@
         <v>1</v>
       </c>
       <c r="M280">
-        <v>8.03E-5</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.1E-05</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13">
       <c r="A281">
         <v>279</v>
       </c>
@@ -14383,10 +14364,10 @@
         <v>1</v>
       </c>
       <c r="M281">
-        <v>8.7999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.87E-05</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13">
       <c r="A282">
         <v>280</v>
       </c>
@@ -14415,10 +14396,10 @@
         <v>2</v>
       </c>
       <c r="M282">
-        <v>7.7899999999999996E-5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.66E-05</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13">
       <c r="A283">
         <v>281</v>
       </c>
@@ -14450,10 +14431,10 @@
         <v>1</v>
       </c>
       <c r="M283">
-        <v>8.4499999999999994E-5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.1E-05</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13">
       <c r="A284">
         <v>282</v>
       </c>
@@ -14479,10 +14460,10 @@
         <v>1</v>
       </c>
       <c r="M284">
-        <v>1.6799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.65E-05</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13">
       <c r="A285">
         <v>283</v>
       </c>
@@ -14520,10 +14501,10 @@
         <v>3</v>
       </c>
       <c r="M285">
-        <v>2.6580000000000001E-4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.59E-05</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13">
       <c r="A286">
         <v>284</v>
       </c>
@@ -14552,10 +14533,10 @@
         <v>2</v>
       </c>
       <c r="M286">
-        <v>1.204E-4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.86E-05</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13">
       <c r="A287">
         <v>285</v>
       </c>
@@ -14584,10 +14565,10 @@
         <v>2</v>
       </c>
       <c r="M287">
-        <v>1.3630000000000001E-4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.63E-05</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13">
       <c r="A288">
         <v>286</v>
       </c>
@@ -14616,10 +14597,10 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>1.3459999999999999E-4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.04E-05</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13">
       <c r="A289">
         <v>287</v>
       </c>
@@ -14651,10 +14632,10 @@
         <v>3</v>
       </c>
       <c r="M289">
-        <v>1.562E-4</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.81E-05</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13">
       <c r="A290">
         <v>288</v>
       </c>
@@ -14680,10 +14661,10 @@
         <v>1</v>
       </c>
       <c r="M290">
-        <v>1.2070000000000001E-4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.78E-05</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13">
       <c r="A291">
         <v>289</v>
       </c>
@@ -14715,10 +14696,10 @@
         <v>3</v>
       </c>
       <c r="M291">
-        <v>1.3909999999999999E-4</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.64E-05</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13">
       <c r="A292">
         <v>290</v>
       </c>
@@ -14747,10 +14728,10 @@
         <v>2</v>
       </c>
       <c r="M292">
-        <v>1.2510000000000001E-4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.44E-05</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13">
       <c r="A293">
         <v>291</v>
       </c>
@@ -14776,10 +14757,10 @@
         <v>1</v>
       </c>
       <c r="M293">
-        <v>1.089E-4</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.78E-05</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13">
       <c r="A294">
         <v>292</v>
       </c>
@@ -14814,10 +14795,10 @@
         <v>2</v>
       </c>
       <c r="M294">
-        <v>1.6139999999999999E-4</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.46E-05</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
       <c r="A295">
         <v>293</v>
       </c>
@@ -14849,10 +14830,10 @@
         <v>3</v>
       </c>
       <c r="M295">
-        <v>1.4229999999999999E-4</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.33E-05</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
       <c r="A296">
         <v>294</v>
       </c>
@@ -14881,10 +14862,10 @@
         <v>2</v>
       </c>
       <c r="M296">
-        <v>1.3329999999999999E-4</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.24E-05</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13">
       <c r="A297">
         <v>295</v>
       </c>
@@ -14919,10 +14900,10 @@
         <v>2</v>
       </c>
       <c r="M297">
-        <v>1.5699999999999999E-4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.68E-05</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13">
       <c r="A298">
         <v>296</v>
       </c>
@@ -14957,10 +14938,10 @@
         <v>2</v>
       </c>
       <c r="M298">
-        <v>1.615E-4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.19E-05</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13">
       <c r="A299">
         <v>297</v>
       </c>
@@ -14998,10 +14979,10 @@
         <v>1</v>
       </c>
       <c r="M299">
-        <v>1.3190000000000001E-4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.57E-05</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13">
       <c r="A300">
         <v>298</v>
       </c>
@@ -15036,10 +15017,10 @@
         <v>1</v>
       </c>
       <c r="M300">
-        <v>8.14E-5</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.16E-05</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13">
       <c r="A301">
         <v>299</v>
       </c>
@@ -15071,10 +15052,10 @@
         <v>1</v>
       </c>
       <c r="M301">
-        <v>9.2700000000000004E-5</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.01E-05</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13">
       <c r="A302">
         <v>300</v>
       </c>
@@ -15106,10 +15087,10 @@
         <v>3</v>
       </c>
       <c r="M302">
-        <v>8.1799999999999996E-5</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.71E-05</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13">
       <c r="A303">
         <v>301</v>
       </c>
@@ -15141,10 +15122,10 @@
         <v>1</v>
       </c>
       <c r="M303">
-        <v>1.167E-4</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.92E-05</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13">
       <c r="A304">
         <v>302</v>
       </c>
@@ -15173,10 +15154,10 @@
         <v>2</v>
       </c>
       <c r="M304">
-        <v>7.4200000000000001E-5</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.4E-05</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13">
       <c r="A305">
         <v>303</v>
       </c>
@@ -15211,10 +15192,10 @@
         <v>2</v>
       </c>
       <c r="M305">
-        <v>1.024E-4</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.72E-05</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13">
       <c r="A306">
         <v>304</v>
       </c>
@@ -15243,10 +15224,10 @@
         <v>2</v>
       </c>
       <c r="M306">
-        <v>6.9800000000000003E-5</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.95E-05</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13">
       <c r="A307">
         <v>305</v>
       </c>
@@ -15278,10 +15259,10 @@
         <v>3</v>
       </c>
       <c r="M307">
-        <v>9.2100000000000003E-5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.51E-05</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13">
       <c r="A308">
         <v>306</v>
       </c>
@@ -15310,10 +15291,10 @@
         <v>2</v>
       </c>
       <c r="M308">
-        <v>7.6899999999999999E-5</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.32E-05</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13">
       <c r="A309">
         <v>307</v>
       </c>
@@ -15348,10 +15329,10 @@
         <v>2</v>
       </c>
       <c r="M309">
-        <v>1.138E-4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.98E-05</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13">
       <c r="A310">
         <v>308</v>
       </c>
@@ -15377,10 +15358,10 @@
         <v>1</v>
       </c>
       <c r="M310">
-        <v>7.3700000000000002E-5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.32E-05</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13">
       <c r="A311">
         <v>309</v>
       </c>
@@ -15418,10 +15399,10 @@
         <v>1</v>
       </c>
       <c r="M311">
-        <v>1.2010000000000001E-4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.01E-05</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13">
       <c r="A312">
         <v>310</v>
       </c>
@@ -15447,10 +15428,10 @@
         <v>1</v>
       </c>
       <c r="M312">
-        <v>6.8399999999999996E-5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.89E-05</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13">
       <c r="A313">
         <v>311</v>
       </c>
@@ -15479,10 +15460,10 @@
         <v>2</v>
       </c>
       <c r="M313">
-        <v>8.0900000000000001E-5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.79E-05</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13">
       <c r="A314">
         <v>312</v>
       </c>
@@ -15517,10 +15498,10 @@
         <v>2</v>
       </c>
       <c r="M314">
-        <v>1.2E-4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.940000000000001E-05</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13">
       <c r="A315">
         <v>313</v>
       </c>
@@ -15549,10 +15530,10 @@
         <v>2</v>
       </c>
       <c r="M315">
-        <v>8.3499999999999997E-5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.71E-05</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13">
       <c r="A316">
         <v>314</v>
       </c>
@@ -15581,10 +15562,10 @@
         <v>2</v>
       </c>
       <c r="M316">
-        <v>7.6699999999999994E-5</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.38E-05</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13">
       <c r="A317">
         <v>315</v>
       </c>
@@ -15613,10 +15594,10 @@
         <v>2</v>
       </c>
       <c r="M317">
-        <v>8.5199999999999997E-5</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.8E-05</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13">
       <c r="A318">
         <v>316</v>
       </c>
@@ -15645,10 +15626,10 @@
         <v>2</v>
       </c>
       <c r="M318">
-        <v>7.4300000000000004E-5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.29E-05</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13">
       <c r="A319">
         <v>317</v>
       </c>
@@ -15677,10 +15658,10 @@
         <v>2</v>
       </c>
       <c r="M319">
-        <v>8.9300000000000002E-5</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.45E-05</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
       <c r="A320">
         <v>318</v>
       </c>
@@ -15712,10 +15693,10 @@
         <v>1</v>
       </c>
       <c r="M320">
-        <v>1.013E-4</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.43E-05</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13">
       <c r="A321">
         <v>319</v>
       </c>
@@ -15744,10 +15725,10 @@
         <v>2</v>
       </c>
       <c r="M321">
-        <v>7.8200000000000003E-5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.55E-05</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13">
       <c r="A322">
         <v>320</v>
       </c>
@@ -15779,10 +15760,10 @@
         <v>1</v>
       </c>
       <c r="M322">
-        <v>9.9500000000000006E-5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.53E-05</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13">
       <c r="A323">
         <v>321</v>
       </c>
@@ -15808,10 +15789,10 @@
         <v>1</v>
       </c>
       <c r="M323">
-        <v>6.3899999999999995E-5</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.48E-05</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13">
       <c r="A324">
         <v>322</v>
       </c>
@@ -15840,10 +15821,10 @@
         <v>2</v>
       </c>
       <c r="M324">
-        <v>6.7899999999999997E-5</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.56E-05</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13">
       <c r="A325">
         <v>323</v>
       </c>
@@ -15878,10 +15859,10 @@
         <v>2</v>
       </c>
       <c r="M325">
-        <v>1.027E-4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.84E-05</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13">
       <c r="A326">
         <v>324</v>
       </c>
@@ -15916,10 +15897,10 @@
         <v>2</v>
       </c>
       <c r="M326">
-        <v>1.1230000000000001E-4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.48E-05</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13">
       <c r="A327">
         <v>325</v>
       </c>
@@ -15951,10 +15932,10 @@
         <v>3</v>
       </c>
       <c r="M327">
-        <v>1.039E-4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.12E-05</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13">
       <c r="A328">
         <v>326</v>
       </c>
@@ -15989,10 +15970,10 @@
         <v>2</v>
       </c>
       <c r="M328">
-        <v>1.108E-4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.96E-05</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13">
       <c r="A329">
         <v>327</v>
       </c>
@@ -16021,10 +16002,10 @@
         <v>2</v>
       </c>
       <c r="M329">
-        <v>6.6799999999999997E-5</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.29E-05</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13">
       <c r="A330">
         <v>328</v>
       </c>
@@ -16053,10 +16034,10 @@
         <v>2</v>
       </c>
       <c r="M330">
-        <v>1.506E-4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.24E-05</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13">
       <c r="A331">
         <v>329</v>
       </c>
@@ -16088,10 +16069,10 @@
         <v>1</v>
       </c>
       <c r="M331">
-        <v>1.2650000000000001E-4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.11E-05</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13">
       <c r="A332">
         <v>330</v>
       </c>
@@ -16126,10 +16107,10 @@
         <v>2</v>
       </c>
       <c r="M332">
-        <v>1.5459999999999999E-4</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.97E-05</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13">
       <c r="A333">
         <v>331</v>
       </c>
@@ -16161,10 +16142,10 @@
         <v>1</v>
       </c>
       <c r="M333">
-        <v>1.147E-4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.48E-05</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13">
       <c r="A334">
         <v>332</v>
       </c>
@@ -16193,10 +16174,10 @@
         <v>2</v>
       </c>
       <c r="M334">
-        <v>1.4200000000000001E-4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.4E-05</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13">
       <c r="A335">
         <v>333</v>
       </c>
@@ -16225,10 +16206,10 @@
         <v>2</v>
       </c>
       <c r="M335">
-        <v>1.7699999999999999E-4</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.89E-05</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13">
       <c r="A336">
         <v>334</v>
       </c>
@@ -16260,10 +16241,10 @@
         <v>3</v>
       </c>
       <c r="M336">
-        <v>1.9359999999999999E-4</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.8E-05</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13">
       <c r="A337">
         <v>335</v>
       </c>
@@ -16298,10 +16279,10 @@
         <v>2</v>
       </c>
       <c r="M337">
-        <v>1.997E-4</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.68E-05</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13">
       <c r="A338">
         <v>336</v>
       </c>
@@ -16336,10 +16317,10 @@
         <v>2</v>
       </c>
       <c r="M338">
-        <v>1.7200000000000001E-4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.24E-05</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13">
       <c r="A339">
         <v>337</v>
       </c>
@@ -16368,10 +16349,10 @@
         <v>2</v>
       </c>
       <c r="M339">
-        <v>8.0900000000000001E-5</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.98E-05</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13">
       <c r="A340">
         <v>338</v>
       </c>
@@ -16400,10 +16381,10 @@
         <v>2</v>
       </c>
       <c r="M340">
-        <v>8.2100000000000003E-5</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.52E-05</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13">
       <c r="A341">
         <v>339</v>
       </c>
@@ -16438,10 +16419,10 @@
         <v>2</v>
       </c>
       <c r="M341">
-        <v>1.0289999999999999E-4</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.86E-05</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13">
       <c r="A342">
         <v>340</v>
       </c>
@@ -16476,10 +16457,10 @@
         <v>2</v>
       </c>
       <c r="M342">
-        <v>1.206E-4</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.28E-05</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13">
       <c r="A343">
         <v>341</v>
       </c>
@@ -16508,10 +16489,10 @@
         <v>2</v>
       </c>
       <c r="M343">
-        <v>8.0000000000000007E-5</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.74E-05</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13">
       <c r="A344">
         <v>342</v>
       </c>
@@ -16543,10 +16524,10 @@
         <v>3</v>
       </c>
       <c r="M344">
-        <v>9.5299999999999999E-5</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.75E-05</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13">
       <c r="A345">
         <v>343</v>
       </c>
@@ -16572,10 +16553,10 @@
         <v>1</v>
       </c>
       <c r="M345">
-        <v>8.0799999999999999E-5</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.51E-05</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13">
       <c r="A346">
         <v>344</v>
       </c>
@@ -16610,10 +16591,10 @@
         <v>2</v>
       </c>
       <c r="M346">
-        <v>1.022E-4</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.24E-05</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13">
       <c r="A347">
         <v>345</v>
       </c>
@@ -16651,10 +16632,10 @@
         <v>3</v>
       </c>
       <c r="M347">
-        <v>1.238E-4</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.97E-05</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13">
       <c r="A348">
         <v>346</v>
       </c>
@@ -16686,10 +16667,10 @@
         <v>3</v>
       </c>
       <c r="M348">
-        <v>1.005E-4</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.64E-05</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13">
       <c r="A349">
         <v>347</v>
       </c>
@@ -16721,10 +16702,10 @@
         <v>1</v>
       </c>
       <c r="M349">
-        <v>1.1290000000000001E-4</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.05E-05</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13">
       <c r="A350">
         <v>348</v>
       </c>
@@ -16756,10 +16737,10 @@
         <v>1</v>
       </c>
       <c r="M350">
-        <v>1.042E-4</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.87E-05</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13">
       <c r="A351">
         <v>349</v>
       </c>
@@ -16791,10 +16772,10 @@
         <v>1</v>
       </c>
       <c r="M351">
-        <v>1.126E-4</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.87E-05</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13">
       <c r="A352">
         <v>350</v>
       </c>
@@ -16823,10 +16804,10 @@
         <v>2</v>
       </c>
       <c r="M352">
-        <v>7.4900000000000005E-5</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.79E-05</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13">
       <c r="A353">
         <v>351</v>
       </c>
@@ -16864,10 +16845,10 @@
         <v>3</v>
       </c>
       <c r="M353">
-        <v>1.105E-4</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.24E-05</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13">
       <c r="A354">
         <v>352</v>
       </c>
@@ -16899,10 +16880,10 @@
         <v>2</v>
       </c>
       <c r="M354">
-        <v>1.1069999999999999E-4</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.07E-05</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13">
       <c r="A355">
         <v>353</v>
       </c>
@@ -16937,10 +16918,10 @@
         <v>1</v>
       </c>
       <c r="M355">
-        <v>1.121E-4</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.55E-05</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13">
       <c r="A356">
         <v>354</v>
       </c>
@@ -16975,10 +16956,10 @@
         <v>2</v>
       </c>
       <c r="M356">
-        <v>1.259E-4</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.04E-05</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13">
       <c r="A357">
         <v>355</v>
       </c>
@@ -17010,10 +16991,10 @@
         <v>3</v>
       </c>
       <c r="M357">
-        <v>8.5000000000000006E-5</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.74E-05</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13">
       <c r="A358">
         <v>356</v>
       </c>
@@ -17045,10 +17026,10 @@
         <v>1</v>
       </c>
       <c r="M358">
-        <v>9.3300000000000005E-5</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.8E-05</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13">
       <c r="A359">
         <v>357</v>
       </c>
@@ -17083,10 +17064,10 @@
         <v>2</v>
       </c>
       <c r="M359">
-        <v>9.98E-5</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.04E-05</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13">
       <c r="A360">
         <v>358</v>
       </c>
@@ -17124,10 +17105,10 @@
         <v>3</v>
       </c>
       <c r="M360">
-        <v>1.3080000000000001E-4</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.3E-05</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13">
       <c r="A361">
         <v>359</v>
       </c>
@@ -17156,10 +17137,10 @@
         <v>2</v>
       </c>
       <c r="M361">
-        <v>8.3200000000000003E-5</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.61E-05</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13">
       <c r="A362">
         <v>360</v>
       </c>
@@ -17191,10 +17172,10 @@
         <v>1</v>
       </c>
       <c r="M362">
-        <v>9.5799999999999998E-5</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.73E-05</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13">
       <c r="A363">
         <v>361</v>
       </c>
@@ -17232,10 +17213,10 @@
         <v>3</v>
       </c>
       <c r="M363">
-        <v>1.126E-4</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.7E-05</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13">
       <c r="A364">
         <v>362</v>
       </c>
@@ -17267,10 +17248,10 @@
         <v>1</v>
       </c>
       <c r="M364">
-        <v>1.058E-4</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.39E-05</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13">
       <c r="A365">
         <v>363</v>
       </c>
@@ -17302,10 +17283,10 @@
         <v>3</v>
       </c>
       <c r="M365">
-        <v>1.0009999999999999E-4</v>
-      </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.63E-05</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13">
       <c r="A366">
         <v>364</v>
       </c>
@@ -17337,10 +17318,10 @@
         <v>3</v>
       </c>
       <c r="M366">
-        <v>8.5099999999999995E-5</v>
-      </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.19E-05</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13">
       <c r="A367">
         <v>365</v>
       </c>
@@ -17372,10 +17353,10 @@
         <v>1</v>
       </c>
       <c r="M367">
-        <v>1.0849999999999999E-4</v>
-      </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.77E-05</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13">
       <c r="A368">
         <v>366</v>
       </c>
@@ -17410,10 +17391,10 @@
         <v>1</v>
       </c>
       <c r="M368">
-        <v>1.008E-4</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.89E-05</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13">
       <c r="A369">
         <v>367</v>
       </c>
@@ -17451,10 +17432,10 @@
         <v>3</v>
       </c>
       <c r="M369">
-        <v>1.283E-4</v>
-      </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.62E-05</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13">
       <c r="A370">
         <v>368</v>
       </c>
@@ -17483,10 +17464,10 @@
         <v>2</v>
       </c>
       <c r="M370">
-        <v>9.0199999999999997E-5</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.48E-05</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13">
       <c r="A371">
         <v>369</v>
       </c>
@@ -17515,10 +17496,10 @@
         <v>2</v>
       </c>
       <c r="M371">
-        <v>7.7799999999999994E-5</v>
-      </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.44E-05</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13">
       <c r="A372">
         <v>370</v>
       </c>
@@ -17553,10 +17534,10 @@
         <v>2</v>
       </c>
       <c r="M372">
-        <v>9.6100000000000005E-5</v>
-      </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.17E-05</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13">
       <c r="A373">
         <v>371</v>
       </c>
@@ -17591,10 +17572,10 @@
         <v>1</v>
       </c>
       <c r="M373">
-        <v>1.115E-4</v>
-      </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.26E-05</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13">
       <c r="A374">
         <v>372</v>
       </c>
@@ -17626,10 +17607,10 @@
         <v>1</v>
       </c>
       <c r="M374">
-        <v>1.002E-4</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.23E-05</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13">
       <c r="A375">
         <v>373</v>
       </c>
@@ -17661,10 +17642,10 @@
         <v>1</v>
       </c>
       <c r="M375">
-        <v>1.002E-4</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.22E-05</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13">
       <c r="A376">
         <v>374</v>
       </c>
@@ -17693,10 +17674,10 @@
         <v>2</v>
       </c>
       <c r="M376">
-        <v>8.5400000000000002E-5</v>
-      </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.93E-05</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13">
       <c r="A377">
         <v>375</v>
       </c>
@@ -17725,10 +17706,10 @@
         <v>1</v>
       </c>
       <c r="M377">
-        <v>1.003E-4</v>
-      </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.96E-05</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13">
       <c r="A378">
         <v>376</v>
       </c>
@@ -17757,10 +17738,10 @@
         <v>2</v>
       </c>
       <c r="M378">
-        <v>8.8200000000000003E-5</v>
-      </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.65E-05</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13">
       <c r="A379">
         <v>377</v>
       </c>
@@ -17792,10 +17773,10 @@
         <v>3</v>
       </c>
       <c r="M379">
-        <v>8.7600000000000002E-5</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.86E-05</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13">
       <c r="A380">
         <v>378</v>
       </c>
@@ -17830,10 +17811,10 @@
         <v>2</v>
       </c>
       <c r="M380">
-        <v>1.015E-4</v>
-      </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.27E-05</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13">
       <c r="A381">
         <v>379</v>
       </c>
@@ -17871,10 +17852,10 @@
         <v>3</v>
       </c>
       <c r="M381">
-        <v>1.3449999999999999E-4</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.720000000000001E-05</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13">
       <c r="A382">
         <v>380</v>
       </c>
@@ -17906,10 +17887,10 @@
         <v>3</v>
       </c>
       <c r="M382">
-        <v>9.1100000000000005E-5</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.17E-05</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13">
       <c r="A383">
         <v>381</v>
       </c>
@@ -17941,10 +17922,10 @@
         <v>1</v>
       </c>
       <c r="M383">
-        <v>9.0400000000000002E-5</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.81E-05</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13">
       <c r="A384">
         <v>382</v>
       </c>
@@ -17979,10 +17960,10 @@
         <v>2</v>
       </c>
       <c r="M384">
-        <v>1.15E-4</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.57E-05</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13">
       <c r="A385">
         <v>383</v>
       </c>
@@ -18014,10 +17995,10 @@
         <v>3</v>
       </c>
       <c r="M385">
-        <v>8.9400000000000005E-5</v>
-      </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.46E-05</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13">
       <c r="A386">
         <v>384</v>
       </c>
@@ -18052,10 +18033,10 @@
         <v>2</v>
       </c>
       <c r="M386">
-        <v>9.3999999999999994E-5</v>
-      </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.15E-05</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13">
       <c r="A387">
         <v>385</v>
       </c>
@@ -18084,10 +18065,10 @@
         <v>2</v>
       </c>
       <c r="M387">
-        <v>8.0099999999999995E-5</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.73E-05</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13">
       <c r="A388">
         <v>386</v>
       </c>
@@ -18125,10 +18106,10 @@
         <v>3</v>
       </c>
       <c r="M388">
-        <v>1.1629999999999999E-4</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.660000000000001E-05</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13">
       <c r="A389">
         <v>387</v>
       </c>
@@ -18163,10 +18144,10 @@
         <v>2</v>
       </c>
       <c r="M389">
-        <v>1.15E-4</v>
-      </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.74E-05</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13">
       <c r="A390">
         <v>388</v>
       </c>
@@ -18201,10 +18182,10 @@
         <v>2</v>
       </c>
       <c r="M390">
-        <v>1.054E-4</v>
-      </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.8E-05</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13">
       <c r="A391">
         <v>389</v>
       </c>
@@ -18239,10 +18220,10 @@
         <v>2</v>
       </c>
       <c r="M391">
-        <v>1.138E-4</v>
-      </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.01E-05</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13">
       <c r="A392">
         <v>390</v>
       </c>
@@ -18280,10 +18261,10 @@
         <v>3</v>
       </c>
       <c r="M392">
-        <v>9.8499999999999995E-5</v>
-      </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.1E-05</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13">
       <c r="A393">
         <v>391</v>
       </c>
@@ -18321,10 +18302,10 @@
         <v>2</v>
       </c>
       <c r="M393">
-        <v>1.2320000000000001E-4</v>
-      </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.69E-05</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13">
       <c r="A394">
         <v>392</v>
       </c>
@@ -18359,10 +18340,10 @@
         <v>2</v>
       </c>
       <c r="M394">
-        <v>1.013E-4</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.23E-05</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13">
       <c r="A395">
         <v>393</v>
       </c>
@@ -18391,10 +18372,10 @@
         <v>2</v>
       </c>
       <c r="M395">
-        <v>9.3800000000000003E-5</v>
-      </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.96E-05</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13">
       <c r="A396">
         <v>394</v>
       </c>
@@ -18426,10 +18407,10 @@
         <v>1</v>
       </c>
       <c r="M396">
-        <v>9.8599999999999998E-5</v>
-      </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.18E-05</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13">
       <c r="A397">
         <v>395</v>
       </c>
@@ -18455,10 +18436,10 @@
         <v>1</v>
       </c>
       <c r="M397">
-        <v>6.5400000000000004E-5</v>
-      </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.48E-05</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13">
       <c r="A398">
         <v>396</v>
       </c>
@@ -18490,10 +18471,10 @@
         <v>3</v>
       </c>
       <c r="M398">
-        <v>9.4900000000000003E-5</v>
-      </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.41E-05</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13">
       <c r="A399">
         <v>397</v>
       </c>
@@ -18522,10 +18503,10 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>1.108E-4</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.8E-05</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13">
       <c r="A400">
         <v>398</v>
       </c>
@@ -18560,10 +18541,10 @@
         <v>2</v>
       </c>
       <c r="M400">
-        <v>8.9099999999999997E-5</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.7E-05</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13">
       <c r="A401">
         <v>399</v>
       </c>
@@ -18595,10 +18576,10 @@
         <v>1</v>
       </c>
       <c r="M401">
-        <v>1.392E-4</v>
-      </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.160000000000001E-05</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13">
       <c r="A402">
         <v>400</v>
       </c>
@@ -18627,10 +18608,10 @@
         <v>2</v>
       </c>
       <c r="M402">
-        <v>7.1199999999999996E-5</v>
-      </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.66E-05</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13">
       <c r="A403">
         <v>401</v>
       </c>
@@ -18662,10 +18643,10 @@
         <v>3</v>
       </c>
       <c r="M403">
-        <v>7.6500000000000003E-5</v>
-      </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.2E-05</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13">
       <c r="A404">
         <v>402</v>
       </c>
@@ -18694,10 +18675,10 @@
         <v>2</v>
       </c>
       <c r="M404">
-        <v>9.7499999999999998E-5</v>
-      </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.51E-05</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13">
       <c r="A405">
         <v>403</v>
       </c>
@@ -18726,10 +18707,10 @@
         <v>2</v>
       </c>
       <c r="M405">
-        <v>7.5300000000000001E-5</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.16E-05</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13">
       <c r="A406">
         <v>404</v>
       </c>
@@ -18767,10 +18748,10 @@
         <v>3</v>
       </c>
       <c r="M406">
-        <v>1.271E-4</v>
-      </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.32E-05</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13">
       <c r="A407">
         <v>405</v>
       </c>
@@ -18796,10 +18777,10 @@
         <v>1</v>
       </c>
       <c r="M407">
-        <v>7.9900000000000004E-5</v>
-      </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.85E-05</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13">
       <c r="A408">
         <v>406</v>
       </c>
@@ -18837,10 +18818,10 @@
         <v>2</v>
       </c>
       <c r="M408">
-        <v>1.2219999999999999E-4</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.940000000000001E-05</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13">
       <c r="A409">
         <v>407</v>
       </c>
@@ -18872,10 +18853,10 @@
         <v>3</v>
       </c>
       <c r="M409">
-        <v>8.1199999999999995E-5</v>
-      </c>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.52E-05</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13">
       <c r="A410">
         <v>408</v>
       </c>
@@ -18907,10 +18888,10 @@
         <v>3</v>
       </c>
       <c r="M410">
-        <v>7.4599999999999997E-5</v>
-      </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.23E-05</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13">
       <c r="A411">
         <v>409</v>
       </c>
@@ -18945,10 +18926,10 @@
         <v>2</v>
       </c>
       <c r="M411">
-        <v>9.6100000000000005E-5</v>
-      </c>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.9E-05</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13">
       <c r="A412">
         <v>410</v>
       </c>
@@ -18983,10 +18964,10 @@
         <v>1</v>
       </c>
       <c r="M412">
-        <v>9.5500000000000004E-5</v>
-      </c>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.11E-05</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13">
       <c r="A413">
         <v>411</v>
       </c>
@@ -19018,10 +18999,10 @@
         <v>3</v>
       </c>
       <c r="M413">
-        <v>8.7299999999999994E-5</v>
-      </c>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.38E-05</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13">
       <c r="A414">
         <v>412</v>
       </c>
@@ -19050,10 +19031,10 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>7.9900000000000004E-5</v>
-      </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.86E-05</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13">
       <c r="A415">
         <v>413</v>
       </c>
@@ -19091,10 +19072,10 @@
         <v>3</v>
       </c>
       <c r="M415">
-        <v>1.076E-4</v>
-      </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.77E-05</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13">
       <c r="A416">
         <v>414</v>
       </c>
@@ -19135,7 +19116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13">
       <c r="A417">
         <v>415</v>
       </c>
@@ -19164,10 +19145,10 @@
         <v>2</v>
       </c>
       <c r="M417">
-        <v>9.2100000000000003E-5</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.03E-05</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13">
       <c r="A418">
         <v>416</v>
       </c>
@@ -19196,10 +19177,10 @@
         <v>2</v>
       </c>
       <c r="M418">
-        <v>7.2600000000000003E-5</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.07E-05</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13">
       <c r="A419">
         <v>417</v>
       </c>
@@ -19228,10 +19209,10 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>8.3100000000000001E-5</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.27E-05</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13">
       <c r="A420">
         <v>418</v>
       </c>
@@ -19263,10 +19244,10 @@
         <v>3</v>
       </c>
       <c r="M420">
-        <v>9.4599999999999996E-5</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.94E-05</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13">
       <c r="A421">
         <v>419</v>
       </c>
@@ -19301,10 +19282,10 @@
         <v>1</v>
       </c>
       <c r="M421">
-        <v>9.7499999999999998E-5</v>
-      </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.02E-05</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13">
       <c r="A422">
         <v>420</v>
       </c>
@@ -19336,10 +19317,10 @@
         <v>1</v>
       </c>
       <c r="M422">
-        <v>1.371E-4</v>
-      </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.93E-05</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13">
       <c r="A423">
         <v>421</v>
       </c>
@@ -19371,10 +19352,10 @@
         <v>1</v>
       </c>
       <c r="M423">
-        <v>9.3599999999999998E-5</v>
-      </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.26E-05</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13">
       <c r="A424">
         <v>422</v>
       </c>
@@ -19406,10 +19387,10 @@
         <v>1</v>
       </c>
       <c r="M424">
-        <v>9.31E-5</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.56E-05</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13">
       <c r="A425">
         <v>423</v>
       </c>
@@ -19438,10 +19419,10 @@
         <v>0</v>
       </c>
       <c r="M425">
-        <v>8.6500000000000002E-5</v>
-      </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.4E-05</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13">
       <c r="A426">
         <v>424</v>
       </c>
@@ -19476,10 +19457,10 @@
         <v>2</v>
       </c>
       <c r="M426">
-        <v>1.133E-4</v>
-      </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.71E-05</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13">
       <c r="A427">
         <v>425</v>
       </c>
@@ -19517,10 +19498,10 @@
         <v>3</v>
       </c>
       <c r="M427">
-        <v>1.281E-4</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.48E-05</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13">
       <c r="A428">
         <v>426</v>
       </c>
@@ -19555,10 +19536,10 @@
         <v>2</v>
       </c>
       <c r="M428">
-        <v>1.8479999999999999E-4</v>
-      </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.160000000000001E-05</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13">
       <c r="A429">
         <v>427</v>
       </c>
@@ -19587,10 +19568,10 @@
         <v>2</v>
       </c>
       <c r="M429">
-        <v>1.474E-4</v>
-      </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.47E-05</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13">
       <c r="A430">
         <v>428</v>
       </c>
@@ -19628,10 +19609,10 @@
         <v>3</v>
       </c>
       <c r="M430">
-        <v>1.9230000000000001E-4</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.57E-05</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13">
       <c r="A431">
         <v>429</v>
       </c>
@@ -19666,10 +19647,10 @@
         <v>1</v>
       </c>
       <c r="M431">
-        <v>1.271E-4</v>
-      </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.779999999999999E-05</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13">
       <c r="A432">
         <v>430</v>
       </c>
@@ -19707,10 +19688,10 @@
         <v>3</v>
       </c>
       <c r="M432">
-        <v>1.171E-4</v>
-      </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.18E-05</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13">
       <c r="A433">
         <v>431</v>
       </c>
@@ -19742,10 +19723,10 @@
         <v>3</v>
       </c>
       <c r="M433">
-        <v>7.4900000000000005E-5</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.73E-05</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13">
       <c r="A434">
         <v>432</v>
       </c>
@@ -19771,10 +19752,10 @@
         <v>1</v>
       </c>
       <c r="M434">
-        <v>8.1100000000000006E-5</v>
-      </c>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.71E-05</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13">
       <c r="A435">
         <v>433</v>
       </c>
@@ -19803,10 +19784,10 @@
         <v>2</v>
       </c>
       <c r="M435">
-        <v>8.2299999999999995E-5</v>
-      </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.7E-05</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13">
       <c r="A436">
         <v>434</v>
       </c>
@@ -19835,10 +19816,10 @@
         <v>2</v>
       </c>
       <c r="M436">
-        <v>9.6100000000000005E-5</v>
-      </c>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.64E-05</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13">
       <c r="A437">
         <v>435</v>
       </c>
@@ -19870,10 +19851,10 @@
         <v>3</v>
       </c>
       <c r="M437">
-        <v>8.6100000000000006E-5</v>
-      </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.85E-05</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13">
       <c r="A438">
         <v>436</v>
       </c>
@@ -19902,10 +19883,10 @@
         <v>2</v>
       </c>
       <c r="M438">
-        <v>7.47E-5</v>
-      </c>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.32E-05</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13">
       <c r="A439">
         <v>437</v>
       </c>
@@ -19934,10 +19915,10 @@
         <v>2</v>
       </c>
       <c r="M439">
-        <v>8.1299999999999997E-5</v>
-      </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.99E-05</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13">
       <c r="A440">
         <v>438</v>
       </c>
@@ -19972,10 +19953,10 @@
         <v>2</v>
       </c>
       <c r="M440">
-        <v>1.0569999999999999E-4</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.04E-05</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13">
       <c r="A441">
         <v>439</v>
       </c>
@@ -20010,10 +19991,10 @@
         <v>2</v>
       </c>
       <c r="M441">
-        <v>1.0679999999999999E-4</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.669999999999999E-05</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13">
       <c r="A442">
         <v>440</v>
       </c>
@@ -20048,10 +20029,10 @@
         <v>2</v>
       </c>
       <c r="M442">
-        <v>1.143E-4</v>
-      </c>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001982</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13">
       <c r="A443">
         <v>441</v>
       </c>
@@ -20083,10 +20064,10 @@
         <v>3</v>
       </c>
       <c r="M443">
-        <v>9.8099999999999999E-5</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001378</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13">
       <c r="A444">
         <v>442</v>
       </c>
@@ -20121,10 +20102,10 @@
         <v>2</v>
       </c>
       <c r="M444">
-        <v>1.071E-4</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001853</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13">
       <c r="A445">
         <v>443</v>
       </c>
@@ -20159,10 +20140,10 @@
         <v>2</v>
       </c>
       <c r="M445">
-        <v>1.1129999999999999E-4</v>
-      </c>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001964</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13">
       <c r="A446">
         <v>444</v>
       </c>
@@ -20197,10 +20178,10 @@
         <v>0</v>
       </c>
       <c r="M446">
-        <v>1.2659999999999999E-4</v>
-      </c>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0002368</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13">
       <c r="A447">
         <v>445</v>
       </c>
@@ -20229,10 +20210,10 @@
         <v>2</v>
       </c>
       <c r="M447">
-        <v>1.292E-4</v>
-      </c>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.059999999999999E-05</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13">
       <c r="A448">
         <v>446</v>
       </c>
@@ -20264,10 +20245,10 @@
         <v>3</v>
       </c>
       <c r="M448">
-        <v>8.6899999999999998E-5</v>
-      </c>
-    </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.01E-05</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13">
       <c r="A449">
         <v>447</v>
       </c>
@@ -20293,10 +20274,10 @@
         <v>1</v>
       </c>
       <c r="M449">
-        <v>6.8399999999999996E-5</v>
-      </c>
-    </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.17E-05</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13">
       <c r="A450">
         <v>448</v>
       </c>
@@ -20331,10 +20312,10 @@
         <v>2</v>
       </c>
       <c r="M450">
-        <v>1.362E-4</v>
-      </c>
-    </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0001152</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13">
       <c r="A451">
         <v>449</v>
       </c>
@@ -20369,7 +20350,7 @@
         <v>2</v>
       </c>
       <c r="M451">
-        <v>1.1239999999999999E-4</v>
+        <v>0.0001009</v>
       </c>
     </row>
   </sheetData>
